--- a/NavyAccountWeb/wwwroot/uploads/loanApplication.xlsx
+++ b/NavyAccountWeb/wwwroot/uploads/loanApplication.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\source\Repo\AccountingLedger\NavyAccountWeb\wwwroot\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -67,13 +72,16 @@
   </si>
   <si>
     <t>BATCH</t>
+  </si>
+  <si>
+    <t>EFFECTIVE_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,32 +426,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -473,8 +482,11 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -498,6 +510,15 @@
       </c>
       <c r="H2" t="s">
         <v>9</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44562</v>
       </c>
     </row>
   </sheetData>
